--- a/bd_23.xlsx
+++ b/bd_23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://udeconce-my.sharepoint.com/personal/fdelrio_udec_cl/Documents/Felipe 2030/Actividades 2023/ANID/Base de datos/base datos prueba python/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fdelr\Documents\GitHub\streamlitdeployapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="441" documentId="13_ncr:1_{AC03729E-7297-4E27-9791-4247B665EEA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AF2EE18-A730-4C9C-942B-F33E2E33A21D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A226CDA-CC5A-460F-8F28-ED3F2B0ACC07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="alumnos" sheetId="2" r:id="rId1"/>
@@ -3630,10 +3630,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3900,8 +3896,8 @@
   <dimension ref="A1:O1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F458" sqref="F458"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C633" sqref="C633"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -34462,7 +34458,7 @@
         <v>6</v>
       </c>
       <c r="M650" s="7" t="s">
-        <v>153</v>
+        <v>359</v>
       </c>
       <c r="N650" s="7" t="s">
         <v>155</v>
@@ -34509,7 +34505,7 @@
         <v>6</v>
       </c>
       <c r="M651" s="7" t="s">
-        <v>153</v>
+        <v>359</v>
       </c>
       <c r="N651" s="7" t="s">
         <v>155</v>
@@ -34556,7 +34552,7 @@
         <v>6</v>
       </c>
       <c r="M652" s="7" t="s">
-        <v>153</v>
+        <v>359</v>
       </c>
       <c r="N652" s="7" t="s">
         <v>155</v>
@@ -34603,7 +34599,7 @@
         <v>6</v>
       </c>
       <c r="M653" s="7" t="s">
-        <v>153</v>
+        <v>359</v>
       </c>
       <c r="N653" s="7" t="s">
         <v>155</v>
@@ -34650,7 +34646,7 @@
         <v>6</v>
       </c>
       <c r="M654" s="7" t="s">
-        <v>153</v>
+        <v>359</v>
       </c>
       <c r="N654" s="7" t="s">
         <v>155</v>
